--- a/data/OsEnvanter.xlsx
+++ b/data/OsEnvanter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnesPekdas\Desktop\Projeler\BT-THY\Otomasyon\BTMigrate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A426D72-A3ED-4C46-9F96-95828294F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B7DC1-B8D8-4632-B90D-5FD85F447DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20445" yWindow="4680" windowWidth="14580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="144">
   <si>
     <t>Hostname</t>
   </si>
@@ -93,9 +94,6 @@
     <t>10.58.59.55</t>
   </si>
   <si>
-    <t>host-008</t>
-  </si>
-  <si>
     <t>ISTDCARKPOC01V</t>
   </si>
   <si>
@@ -195,9 +193,6 @@
     <t>10.58.59.26</t>
   </si>
   <si>
-    <t>host-025</t>
-  </si>
-  <si>
     <t>ISTDCARKJMP02V</t>
   </si>
   <si>
@@ -373,6 +368,96 @@
   </si>
   <si>
     <t>10.58.59.154</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>safename</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>mssql</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>inspur</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>member list</t>
+  </si>
+  <si>
+    <t>platformid ( buna gerek kalmayabilir type dan alırız )</t>
+  </si>
+  <si>
+    <t>pam1111</t>
+  </si>
+  <si>
+    <t>PAM100545</t>
+  </si>
+  <si>
+    <t>E_MISIR</t>
+  </si>
+  <si>
+    <t>S_OZCAN</t>
+  </si>
+  <si>
+    <t>tkrac</t>
+  </si>
+  <si>
+    <t>tkracdb.thy.com</t>
+  </si>
+  <si>
+    <t>10.58.59.105</t>
+  </si>
+  <si>
+    <t>host-057</t>
+  </si>
+  <si>
+    <t>host-058</t>
+  </si>
+  <si>
+    <t>10.58.59.106</t>
+  </si>
+  <si>
+    <t>host-059</t>
+  </si>
+  <si>
+    <t>10.58.59.135</t>
+  </si>
+  <si>
+    <t>10.58.59.129</t>
   </si>
 </sst>
 </file>
@@ -716,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +932,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -858,10 +943,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -872,13 +957,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -886,10 +971,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -900,10 +985,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -914,10 +999,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -928,10 +1013,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -942,10 +1027,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -956,10 +1041,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -970,10 +1055,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -984,10 +1069,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -998,10 +1083,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1012,10 +1097,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1026,10 +1111,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1040,10 +1125,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1054,10 +1139,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1068,10 +1153,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1082,10 +1167,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1096,10 +1181,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1110,10 +1195,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1124,10 +1209,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1138,10 +1223,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1152,10 +1237,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1166,10 +1251,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1180,10 +1265,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1194,10 +1279,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1208,10 +1293,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1222,10 +1307,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1236,10 +1321,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1250,10 +1335,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1264,10 +1349,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1278,10 +1363,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1292,10 +1377,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1306,10 +1391,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1320,10 +1405,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1334,10 +1419,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1348,10 +1433,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1362,10 +1447,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1376,10 +1461,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1390,10 +1475,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1404,10 +1489,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1418,10 +1503,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1432,10 +1517,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1446,10 +1531,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1460,10 +1545,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1474,10 +1559,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1488,16 +1573,176 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49654EA6-1109-4B18-9910-B74859F2B473}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3">
+        <v>1453</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
